--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll3-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll3-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H2">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I2">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J2">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N2">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q2">
-        <v>2.289361569062222</v>
+        <v>9.893991957244555</v>
       </c>
       <c r="R2">
-        <v>20.60425412156</v>
+        <v>89.04592761520101</v>
       </c>
       <c r="S2">
-        <v>0.0204457070703932</v>
+        <v>0.03147926724794994</v>
       </c>
       <c r="T2">
-        <v>0.02044570707039319</v>
+        <v>0.03147926724794994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H3">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I3">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J3">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P3">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q3">
-        <v>0.8708835577657777</v>
+        <v>8.602682721666778</v>
       </c>
       <c r="R3">
-        <v>7.837952019892001</v>
+        <v>77.424144495001</v>
       </c>
       <c r="S3">
-        <v>0.007777640000218333</v>
+        <v>0.02737076698818021</v>
       </c>
       <c r="T3">
-        <v>0.007777640000218332</v>
+        <v>0.02737076698818022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H4">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I4">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J4">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N4">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O4">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P4">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q4">
-        <v>9.463905249981778</v>
+        <v>125.417628924331</v>
       </c>
       <c r="R4">
-        <v>85.175147249836</v>
+        <v>1128.758660318979</v>
       </c>
       <c r="S4">
-        <v>0.08451973558826903</v>
+        <v>0.3990356041903182</v>
       </c>
       <c r="T4">
-        <v>0.08451973558826902</v>
+        <v>0.3990356041903183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1321426666666667</v>
+        <v>1.305319666666667</v>
       </c>
       <c r="H5">
-        <v>0.396428</v>
+        <v>3.915959</v>
       </c>
       <c r="I5">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613518</v>
       </c>
       <c r="J5">
-        <v>0.1128743075049564</v>
+        <v>0.4586709810613519</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N5">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P5">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q5">
-        <v>0.01469360382</v>
+        <v>0.246834643647</v>
       </c>
       <c r="R5">
-        <v>0.13224243438</v>
+        <v>2.221511792823</v>
       </c>
       <c r="S5">
-        <v>0.0001312248460758386</v>
+        <v>0.0007853426349034924</v>
       </c>
       <c r="T5">
-        <v>0.0001312248460758386</v>
+        <v>0.0007853426349034924</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>2.951322</v>
       </c>
       <c r="I6">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J6">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N6">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q6">
-        <v>17.04380912732667</v>
+        <v>7.456757369328667</v>
       </c>
       <c r="R6">
-        <v>153.39428214594</v>
+        <v>67.11081632395801</v>
       </c>
       <c r="S6">
-        <v>0.1522139331288582</v>
+        <v>0.02372482806197769</v>
       </c>
       <c r="T6">
-        <v>0.1522139331288581</v>
+        <v>0.02372482806197769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>2.951322</v>
       </c>
       <c r="I7">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J7">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P7">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q7">
         <v>6.483542543595334</v>
@@ -883,10 +883,10 @@
         <v>58.35188289235801</v>
       </c>
       <c r="S7">
-        <v>0.05790287275551771</v>
+        <v>0.02062839441605236</v>
       </c>
       <c r="T7">
-        <v>0.0579028727555177</v>
+        <v>0.02062839441605237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>2.951322</v>
       </c>
       <c r="I8">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J8">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N8">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O8">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P8">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q8">
-        <v>70.45675827687934</v>
+        <v>94.52290165249799</v>
       </c>
       <c r="R8">
-        <v>634.1108244919141</v>
+        <v>850.706114872482</v>
       </c>
       <c r="S8">
-        <v>0.62923142430868</v>
+        <v>0.3007392461029797</v>
       </c>
       <c r="T8">
-        <v>0.6292314243086797</v>
+        <v>0.3007392461029798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>2.951322</v>
       </c>
       <c r="I9">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="J9">
-        <v>0.8403251712143011</v>
+        <v>0.3456843539904149</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N9">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P9">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q9">
-        <v>0.10939074993</v>
+        <v>0.186030679626</v>
       </c>
       <c r="R9">
-        <v>0.98451674937</v>
+        <v>1.674276116634</v>
       </c>
       <c r="S9">
-        <v>0.0009769410212453109</v>
+        <v>0.000591885409405115</v>
       </c>
       <c r="T9">
-        <v>0.0009769410212453109</v>
+        <v>0.0005918854094051151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H10">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I10">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J10">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N10">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q10">
-        <v>0.949226774458889</v>
+        <v>1.477540165413556</v>
       </c>
       <c r="R10">
-        <v>8.543040970130001</v>
+        <v>13.297861488722</v>
       </c>
       <c r="S10">
-        <v>0.008477303382842433</v>
+        <v>0.004701022796220957</v>
       </c>
       <c r="T10">
-        <v>0.00847730338284243</v>
+        <v>0.004701022796220958</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H11">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I11">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J11">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P11">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q11">
-        <v>0.3610901841101112</v>
+        <v>1.284699776035778</v>
       </c>
       <c r="R11">
-        <v>3.249811656991</v>
+        <v>11.562297984322</v>
       </c>
       <c r="S11">
-        <v>0.003224804779672191</v>
+        <v>0.004087471240928163</v>
       </c>
       <c r="T11">
-        <v>0.00322480477967219</v>
+        <v>0.004087471240928164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H12">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I12">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J12">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N12">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O12">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P12">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q12">
-        <v>3.923972681128112</v>
+        <v>18.729506248582</v>
       </c>
       <c r="R12">
-        <v>35.315754130153</v>
+        <v>168.565556237238</v>
       </c>
       <c r="S12">
-        <v>0.03504400400301744</v>
+        <v>0.05959082392315387</v>
       </c>
       <c r="T12">
-        <v>0.03504400400301742</v>
+        <v>0.05959082392315389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,46 +1219,294 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.05478966666666667</v>
+        <v>0.1949326666666667</v>
       </c>
       <c r="H13">
-        <v>0.164369</v>
+        <v>0.584798</v>
       </c>
       <c r="I13">
-        <v>0.04680052128074248</v>
+        <v>0.0684965987597716</v>
       </c>
       <c r="J13">
-        <v>0.04680052128074248</v>
+        <v>0.06849659875977161</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N13">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P13">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q13">
-        <v>0.006092336985</v>
+        <v>0.036861572334</v>
       </c>
       <c r="R13">
-        <v>0.054831032865</v>
+        <v>0.331754151006</v>
       </c>
       <c r="S13">
-        <v>5.440911521042792E-05</v>
+        <v>0.0001172807994686084</v>
       </c>
       <c r="T13">
-        <v>5.44091152104279E-05</v>
+        <v>0.0001172807994686085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.085542</v>
+      </c>
+      <c r="I14">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J14">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.579746333333333</v>
+      </c>
+      <c r="N14">
+        <v>22.739239</v>
+      </c>
+      <c r="O14">
+        <v>0.0686314777863378</v>
+      </c>
+      <c r="P14">
+        <v>0.0686314777863378</v>
+      </c>
+      <c r="Q14">
+        <v>2.742710998059778</v>
+      </c>
+      <c r="R14">
+        <v>24.684398982538</v>
+      </c>
+      <c r="S14">
+        <v>0.008726359680189213</v>
+      </c>
+      <c r="T14">
+        <v>0.008726359680189213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.085542</v>
+      </c>
+      <c r="I15">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J15">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N15">
+        <v>19.771439</v>
+      </c>
+      <c r="O15">
+        <v>0.0596740760116217</v>
+      </c>
+      <c r="P15">
+        <v>0.05967407601162171</v>
+      </c>
+      <c r="Q15">
+        <v>2.384747492770889</v>
+      </c>
+      <c r="R15">
+        <v>21.462727434938</v>
+      </c>
+      <c r="S15">
+        <v>0.007587443366460968</v>
+      </c>
+      <c r="T15">
+        <v>0.007587443366460968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.085542</v>
+      </c>
+      <c r="I16">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J16">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>96.08192699999999</v>
+      </c>
+      <c r="N16">
+        <v>288.245781</v>
+      </c>
+      <c r="O16">
+        <v>0.8699822327258658</v>
+      </c>
+      <c r="P16">
+        <v>0.8699822327258659</v>
+      </c>
+      <c r="Q16">
+        <v>34.766989066478</v>
+      </c>
+      <c r="R16">
+        <v>312.902901598302</v>
+      </c>
+      <c r="S16">
+        <v>0.110616558509414</v>
+      </c>
+      <c r="T16">
+        <v>0.110616558509414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3618473333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.085542</v>
+      </c>
+      <c r="I17">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="J17">
+        <v>0.1271480661884616</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.189099</v>
+      </c>
+      <c r="N17">
+        <v>0.5672970000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.001712213476174646</v>
+      </c>
+      <c r="P17">
+        <v>0.001712213476174646</v>
+      </c>
+      <c r="Q17">
+        <v>0.06842496888600001</v>
+      </c>
+      <c r="R17">
+        <v>0.615824719974</v>
+      </c>
+      <c r="S17">
+        <v>0.0002177046323974298</v>
+      </c>
+      <c r="T17">
+        <v>0.0002177046323974298</v>
       </c>
     </row>
   </sheetData>
